--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or_cohen\PycharmProjects\TestGithub1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43F202F-48A9-4A9D-BCDA-112B18748A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B278D48F-B731-4938-802C-1CF558A3B50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +54,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="184" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -86,7 +87,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,7 +371,7 @@
   <dimension ref="A1:C690"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
